--- a/Database_backup/DPP_Intervention-2020-08-09.xlsx
+++ b/Database_backup/DPP_Intervention-2020-08-09.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tablib Dataset'!$A$1:$L$461</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="451">
   <si>
     <t>id</t>
   </si>
@@ -372,18 +375,6 @@
     <t>Juringa Khal</t>
   </si>
   <si>
-    <t>Ukhra Khal</t>
-  </si>
-  <si>
-    <t>Chapri Khal</t>
-  </si>
-  <si>
-    <t>Ichamati Khal</t>
-  </si>
-  <si>
-    <t>Narsua River</t>
-  </si>
-  <si>
     <t>Sutki River</t>
   </si>
   <si>
@@ -597,12 +588,6 @@
     <t xml:space="preserve">Irrigation Inlet No-104 in  Dharmapasha Rui Beel Project </t>
   </si>
   <si>
-    <t xml:space="preserve">Irrigation Inlet No-103 in  Ganesh Haor Project </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irrigation Inlet No-102 in  Ganesh Haor Project </t>
-  </si>
-  <si>
     <t xml:space="preserve">Irrigation Inlet No-101 in  Mokhar Haor Project </t>
   </si>
   <si>
@@ -963,12 +948,6 @@
     <t xml:space="preserve">Box Sluice at Km1.75 in Dharmapasha Rui Beel Project </t>
   </si>
   <si>
-    <t xml:space="preserve">Box Sluice at Km24.58 in Ganesh Haor Project </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box Sluice at Km15.16 in Ganesh Haor Project </t>
-  </si>
-  <si>
     <t xml:space="preserve">Box Sluice at Km81.03 in Mokhar Haor Project </t>
   </si>
   <si>
@@ -1182,18 +1161,6 @@
     <t>1-Vent Regulator at Km34.28 in Dharmapasha Rui Beel Project</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Vent Regulator at Km22.27 in Ganesh Haor Project </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Vent Regulator at Km29.67 in Ganesh Haor Project </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Vent Regulator at Km27.27 in Ganesh Haor Project </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Vent Regulator at Km18.02 in Ganesh Haor Project </t>
-  </si>
-  <si>
     <t xml:space="preserve">4-Vent Regulator at Km7.61 in Mokhar Haor Project </t>
   </si>
   <si>
@@ -1329,9 +1296,6 @@
     <t>Submersible Embankment in between 10.600 to 49.426 total 33.849 km</t>
   </si>
   <si>
-    <t>Submersible Embankment from 0 to 33.150</t>
-  </si>
-  <si>
     <t>Submersible Embankment from 0.000 to 9.00-(Part-B)</t>
   </si>
   <si>
@@ -1348,6 +1312,69 @@
   </si>
   <si>
     <t>Submersible Embankment from 11.95 to 12.33=0.315 Km</t>
+  </si>
+  <si>
+    <t>Re-excavation of Piyan River from km 0.075 to km 5.00 4.925 km</t>
+  </si>
+  <si>
+    <t>Naiyori Khal from km 0.00 to km 7.565 5.27 km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feni khal from km 0.00 to 1.903 1.93 km </t>
+  </si>
+  <si>
+    <t>Jhalokhali khal from km 0.00 to km 6.7 6.70 km</t>
+  </si>
+  <si>
+    <t>Putia khal From km.0.00 to km. 5.235 5.235 km</t>
+  </si>
+  <si>
+    <t>Resectioning of Submersible Embankment in between 0.000 to 48.350 total 9.75 km</t>
+  </si>
+  <si>
+    <t>Construction of submersible embankment of Ganesh Haor Sub-project in between Km 6.8 to km 24.855 Total Length 3.071 km</t>
+  </si>
+  <si>
+    <t>Construction of 1 vent 1.80 m x1.50 m Chapri Regulator at km 27.270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of 1 vent 1.80 m x1.50 m Ukra Regulator at km 18.02 </t>
+  </si>
+  <si>
+    <t>Construction of 1 vent 1.80 m x1.50 m Ichamati Regulator at km 29.670</t>
+  </si>
+  <si>
+    <t>Construction of 4-vent Regulator over Boilara khal at km. 7.61</t>
+  </si>
+  <si>
+    <t>Narsua River from km 0.00 to km 6.225=6.226 km</t>
+  </si>
+  <si>
+    <t>Ichamati khal from km 0.072 to km 1.250 1.178</t>
+  </si>
+  <si>
+    <t>Chapri khal from km 0.280 to 2.590=2.310 km</t>
+  </si>
+  <si>
+    <t>Ukhra Khal from km 0.110 to km 2.043=1.933 km,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boilara khal From km. 8.550 to km.8.900 =0.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of Box Drainage Outlet  of Box Sluice at Km24.58 in Ganesh Haor Project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of Box Drainage Outlet  Box Sluice at Km15.16 in Ganesh Haor Project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of Irrigation Inlet at Km 0.60 </t>
+  </si>
+  <si>
+    <t>Construction of Irrigation Inlet at Km  7.8</t>
+  </si>
+  <si>
+    <t>Rehabilitation of Existing 4 vent regulator at KM 20.11over the Nasir khal</t>
   </si>
 </sst>
 </file>
@@ -1699,17 +1726,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L455"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C465" sqref="C465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1750,7 +1779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>540</v>
       </c>
@@ -1788,7 +1817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>539</v>
       </c>
@@ -1798,25 +1827,25 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>3.56</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>14852</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>12</v>
       </c>
       <c r="K3" t="s">
@@ -1826,7 +1855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>538</v>
       </c>
@@ -1864,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>537</v>
       </c>
@@ -1902,7 +1931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>517</v>
       </c>
@@ -1912,25 +1941,25 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>2.9830000000000001</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>9</v>
       </c>
       <c r="K6" t="s">
@@ -1940,7 +1969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>516</v>
       </c>
@@ -1950,25 +1979,25 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>3.45</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>3.15</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>9</v>
       </c>
       <c r="K7" t="s">
@@ -1978,7 +2007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>515</v>
       </c>
@@ -2016,7 +2045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>514</v>
       </c>
@@ -2054,7 +2083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>513</v>
       </c>
@@ -2092,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>512</v>
       </c>
@@ -2130,7 +2159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>511</v>
       </c>
@@ -2168,7 +2197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>510</v>
       </c>
@@ -2203,7 +2232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>509</v>
       </c>
@@ -2238,7 +2267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>508</v>
       </c>
@@ -2276,7 +2305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>507</v>
       </c>
@@ -2314,7 +2343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>506</v>
       </c>
@@ -2324,25 +2353,25 @@
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>11.6</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>10.69</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>87873.05</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>11</v>
       </c>
       <c r="K17" t="s">
@@ -2352,7 +2381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>505</v>
       </c>
@@ -2390,7 +2419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>491</v>
       </c>
@@ -2428,7 +2457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>490</v>
       </c>
@@ -2466,7 +2495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>489</v>
       </c>
@@ -2476,25 +2505,25 @@
       <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>11.6</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>10.69</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>87873.05</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>11</v>
       </c>
       <c r="K21" t="s">
@@ -2504,7 +2533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>488</v>
       </c>
@@ -2542,7 +2571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>483</v>
       </c>
@@ -2580,7 +2609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>482</v>
       </c>
@@ -2618,7 +2647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>481</v>
       </c>
@@ -2656,7 +2685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>474</v>
       </c>
@@ -2682,7 +2711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>473</v>
       </c>
@@ -2720,7 +2749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>472</v>
       </c>
@@ -2758,7 +2787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>471</v>
       </c>
@@ -2796,7 +2825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>470</v>
       </c>
@@ -2834,7 +2863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>469</v>
       </c>
@@ -2872,7 +2901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>468</v>
       </c>
@@ -2910,7 +2939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>460</v>
       </c>
@@ -2948,7 +2977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>459</v>
       </c>
@@ -2986,7 +3015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>456</v>
       </c>
@@ -3024,7 +3053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>455</v>
       </c>
@@ -3062,7 +3091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>452</v>
       </c>
@@ -3100,7 +3129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>451</v>
       </c>
@@ -3138,7 +3167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>448</v>
       </c>
@@ -3176,7 +3205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>447</v>
       </c>
@@ -3214,7 +3243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>444</v>
       </c>
@@ -3252,7 +3281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>443</v>
       </c>
@@ -3290,7 +3319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>440</v>
       </c>
@@ -3328,7 +3357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>439</v>
       </c>
@@ -3366,7 +3395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>436</v>
       </c>
@@ -3404,7 +3433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>435</v>
       </c>
@@ -3442,7 +3471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>432</v>
       </c>
@@ -3480,7 +3509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>431</v>
       </c>
@@ -3518,7 +3547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>428</v>
       </c>
@@ -3556,7 +3585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>427</v>
       </c>
@@ -3594,7 +3623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>424</v>
       </c>
@@ -3632,7 +3661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>423</v>
       </c>
@@ -3670,7 +3699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>420</v>
       </c>
@@ -3708,7 +3737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>419</v>
       </c>
@@ -3746,7 +3775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>410</v>
       </c>
@@ -3784,7 +3813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>409</v>
       </c>
@@ -3822,7 +3851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>408</v>
       </c>
@@ -3860,7 +3889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>407</v>
       </c>
@@ -3898,7 +3927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>406</v>
       </c>
@@ -3936,7 +3965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>405</v>
       </c>
@@ -3974,7 +4003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>404</v>
       </c>
@@ -4012,7 +4041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>403</v>
       </c>
@@ -4050,7 +4079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>402</v>
       </c>
@@ -4088,7 +4117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>401</v>
       </c>
@@ -4126,7 +4155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>400</v>
       </c>
@@ -4164,7 +4193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>399</v>
       </c>
@@ -4202,7 +4231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>398</v>
       </c>
@@ -4240,7 +4269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>397</v>
       </c>
@@ -4275,7 +4304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>396</v>
       </c>
@@ -4307,7 +4336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>395</v>
       </c>
@@ -4342,7 +4371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>394</v>
       </c>
@@ -4371,7 +4400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>393</v>
       </c>
@@ -4397,7 +4426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>392</v>
       </c>
@@ -4429,7 +4458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>391</v>
       </c>
@@ -4467,7 +4496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>390</v>
       </c>
@@ -4505,7 +4534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>389</v>
       </c>
@@ -4543,7 +4572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>388</v>
       </c>
@@ -4581,7 +4610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>387</v>
       </c>
@@ -4607,7 +4636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>386</v>
       </c>
@@ -4633,7 +4662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>385</v>
       </c>
@@ -4659,7 +4688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>384</v>
       </c>
@@ -4682,7 +4711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>383</v>
       </c>
@@ -4705,7 +4734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>382</v>
       </c>
@@ -4743,7 +4772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>381</v>
       </c>
@@ -4775,7 +4804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>380</v>
       </c>
@@ -4813,7 +4842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>379</v>
       </c>
@@ -4851,7 +4880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>378</v>
       </c>
@@ -4889,7 +4918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>376</v>
       </c>
@@ -4927,7 +4956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>375</v>
       </c>
@@ -4956,7 +4985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>374</v>
       </c>
@@ -4988,7 +5017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>373</v>
       </c>
@@ -5020,7 +5049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>372</v>
       </c>
@@ -5058,7 +5087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>371</v>
       </c>
@@ -5096,7 +5125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>370</v>
       </c>
@@ -5134,7 +5163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>369</v>
       </c>
@@ -5172,7 +5201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>368</v>
       </c>
@@ -5210,7 +5239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>367</v>
       </c>
@@ -5248,7 +5277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>366</v>
       </c>
@@ -5286,7 +5315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>365</v>
       </c>
@@ -5324,7 +5353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>364</v>
       </c>
@@ -5362,7 +5391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>363</v>
       </c>
@@ -5400,7 +5429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>362</v>
       </c>
@@ -5438,7 +5467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>361</v>
       </c>
@@ -5476,7 +5505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>360</v>
       </c>
@@ -5514,7 +5543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>359</v>
       </c>
@@ -5552,7 +5581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>358</v>
       </c>
@@ -5590,7 +5619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>357</v>
       </c>
@@ -5628,7 +5657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>356</v>
       </c>
@@ -5666,7 +5695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>355</v>
       </c>
@@ -5704,7 +5733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>354</v>
       </c>
@@ -5742,7 +5771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>353</v>
       </c>
@@ -5780,7 +5809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>352</v>
       </c>
@@ -5818,7 +5847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>351</v>
       </c>
@@ -5856,7 +5885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>350</v>
       </c>
@@ -5894,7 +5923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>349</v>
       </c>
@@ -5932,7 +5961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>348</v>
       </c>
@@ -5970,7 +5999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>347</v>
       </c>
@@ -6008,7 +6037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>346</v>
       </c>
@@ -6046,7 +6075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>345</v>
       </c>
@@ -6084,7 +6113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>344</v>
       </c>
@@ -6122,7 +6151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>343</v>
       </c>
@@ -6160,7 +6189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>342</v>
       </c>
@@ -6198,7 +6227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>341</v>
       </c>
@@ -6236,7 +6265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>340</v>
       </c>
@@ -6274,7 +6303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>339</v>
       </c>
@@ -6312,7 +6341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>338</v>
       </c>
@@ -6350,7 +6379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>337</v>
       </c>
@@ -6388,7 +6417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>336</v>
       </c>
@@ -6426,7 +6455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>335</v>
       </c>
@@ -6472,33 +6501,33 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>117</v>
-      </c>
-      <c r="D130">
+        <v>444</v>
+      </c>
+      <c r="D130" s="2">
         <v>0.11</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2">
         <v>2.0430000000000001</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="2">
         <v>1.9330000000000001</v>
       </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2">
         <v>7</v>
       </c>
-      <c r="K130" t="s">
-        <v>18</v>
-      </c>
-      <c r="L130" t="s">
+      <c r="K130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6510,33 +6539,33 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>118</v>
-      </c>
-      <c r="D131">
+        <v>443</v>
+      </c>
+      <c r="D131" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
         <v>2.59</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="2">
         <v>2.31</v>
       </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2">
         <v>7</v>
       </c>
-      <c r="K131" t="s">
-        <v>18</v>
-      </c>
-      <c r="L131" t="s">
+      <c r="K131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6548,33 +6577,33 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>119</v>
-      </c>
-      <c r="D132">
+        <v>442</v>
+      </c>
+      <c r="D132" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2">
         <v>1.25</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="2">
         <v>1.1779999999999999</v>
       </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2">
         <v>7</v>
       </c>
-      <c r="K132" t="s">
-        <v>18</v>
-      </c>
-      <c r="L132" t="s">
+      <c r="K132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6586,37 +6615,37 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>120</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
+        <v>441</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2">
         <v>6.2249999999999996</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="2">
         <v>6.2249999999999996</v>
       </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2">
         <v>8</v>
       </c>
-      <c r="K133" t="s">
-        <v>18</v>
-      </c>
-      <c r="L133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>330</v>
       </c>
@@ -6624,7 +6653,7 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D134">
         <v>13.1</v>
@@ -6654,7 +6683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>329</v>
       </c>
@@ -6662,7 +6691,7 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -6692,7 +6721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>328</v>
       </c>
@@ -6700,7 +6729,7 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -6730,7 +6759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>327</v>
       </c>
@@ -6738,7 +6767,7 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6768,7 +6797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>326</v>
       </c>
@@ -6776,7 +6805,7 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D138">
         <v>9.4E-2</v>
@@ -6806,7 +6835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>325</v>
       </c>
@@ -6814,7 +6843,7 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -6844,7 +6873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>324</v>
       </c>
@@ -6852,7 +6881,7 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D140">
         <v>0.157</v>
@@ -6882,7 +6911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>323</v>
       </c>
@@ -6890,7 +6919,7 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -6920,7 +6949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>322</v>
       </c>
@@ -6928,7 +6957,7 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D142">
         <v>0.184</v>
@@ -6958,7 +6987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>321</v>
       </c>
@@ -6966,7 +6995,7 @@
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D143">
         <v>0.17</v>
@@ -6996,7 +7025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>320</v>
       </c>
@@ -7004,7 +7033,7 @@
         <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -7034,7 +7063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>319</v>
       </c>
@@ -7042,7 +7071,7 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D145">
         <v>0.41</v>
@@ -7072,7 +7101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>318</v>
       </c>
@@ -7080,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -7110,7 +7139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>317</v>
       </c>
@@ -7118,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -7148,7 +7177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>316</v>
       </c>
@@ -7156,7 +7185,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D148">
         <v>0.12</v>
@@ -7186,7 +7215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>315</v>
       </c>
@@ -7194,7 +7223,7 @@
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D149">
         <v>0.495</v>
@@ -7224,7 +7253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>314</v>
       </c>
@@ -7232,7 +7261,7 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -7262,7 +7291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>313</v>
       </c>
@@ -7270,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D151">
         <v>1.01</v>
@@ -7300,7 +7329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>312</v>
       </c>
@@ -7308,7 +7337,7 @@
         <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D152">
         <v>0.185</v>
@@ -7338,7 +7367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>311</v>
       </c>
@@ -7346,7 +7375,7 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D153">
         <v>0.52</v>
@@ -7376,7 +7405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>310</v>
       </c>
@@ -7384,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D154">
         <v>0.08</v>
@@ -7414,7 +7443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>309</v>
       </c>
@@ -7422,7 +7451,7 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -7452,7 +7481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>308</v>
       </c>
@@ -7460,7 +7489,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -7490,7 +7519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>307</v>
       </c>
@@ -7498,7 +7527,7 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D157">
         <v>0.2</v>
@@ -7528,7 +7557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>306</v>
       </c>
@@ -7536,7 +7565,7 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -7566,7 +7595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>305</v>
       </c>
@@ -7574,7 +7603,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -7604,7 +7633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>304</v>
       </c>
@@ -7612,7 +7641,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7642,7 +7671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>303</v>
       </c>
@@ -7650,7 +7679,7 @@
         <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D161">
         <v>0.09</v>
@@ -7680,7 +7709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>302</v>
       </c>
@@ -7688,7 +7717,7 @@
         <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D162">
         <v>4</v>
@@ -7718,7 +7747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>301</v>
       </c>
@@ -7726,7 +7755,7 @@
         <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D163">
         <v>0.3</v>
@@ -7756,7 +7785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>300</v>
       </c>
@@ -7764,7 +7793,7 @@
         <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D164">
         <v>0.2</v>
@@ -7794,7 +7823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>299</v>
       </c>
@@ -7802,7 +7831,7 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D165">
         <v>0.41</v>
@@ -7832,7 +7861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>298</v>
       </c>
@@ -7840,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D166">
         <v>7.3</v>
@@ -7870,7 +7899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>297</v>
       </c>
@@ -7878,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D167">
         <v>2.5</v>
@@ -7908,7 +7937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>296</v>
       </c>
@@ -7916,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -7946,7 +7975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>295</v>
       </c>
@@ -7954,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D169">
         <v>0.16</v>
@@ -7984,7 +8013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>294</v>
       </c>
@@ -7992,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D170">
         <v>0.04</v>
@@ -8022,7 +8051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>293</v>
       </c>
@@ -8030,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D171">
         <v>0.1</v>
@@ -8060,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>292</v>
       </c>
@@ -8068,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D172">
         <v>0.17499999999999999</v>
@@ -8098,7 +8127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>290</v>
       </c>
@@ -8106,7 +8135,7 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -8136,7 +8165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>289</v>
       </c>
@@ -8144,7 +8173,7 @@
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -8174,7 +8203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>288</v>
       </c>
@@ -8182,7 +8211,7 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D175">
         <v>0.18</v>
@@ -8212,7 +8241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>287</v>
       </c>
@@ -8220,7 +8249,7 @@
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D176">
         <v>1.7</v>
@@ -8250,7 +8279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>286</v>
       </c>
@@ -8258,7 +8287,7 @@
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -8288,7 +8317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>285</v>
       </c>
@@ -8296,7 +8325,7 @@
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -8326,7 +8355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>284</v>
       </c>
@@ -8334,7 +8363,7 @@
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -8364,7 +8393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>283</v>
       </c>
@@ -8372,7 +8401,7 @@
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -8402,7 +8431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>282</v>
       </c>
@@ -8410,7 +8439,7 @@
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -8440,7 +8469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>281</v>
       </c>
@@ -8448,7 +8477,7 @@
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -8478,7 +8507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>280</v>
       </c>
@@ -8486,7 +8515,7 @@
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -8516,7 +8545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>279</v>
       </c>
@@ -8524,7 +8553,7 @@
         <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -8554,7 +8583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>278</v>
       </c>
@@ -8562,7 +8591,7 @@
         <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -8592,7 +8621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>277</v>
       </c>
@@ -8600,7 +8629,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -8630,7 +8659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>276</v>
       </c>
@@ -8638,7 +8667,7 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -8668,7 +8697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>275</v>
       </c>
@@ -8676,7 +8705,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -8706,7 +8735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>274</v>
       </c>
@@ -8714,7 +8743,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -8744,7 +8773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>273</v>
       </c>
@@ -8752,7 +8781,7 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -8782,7 +8811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>272</v>
       </c>
@@ -8790,7 +8819,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -8820,7 +8849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>271</v>
       </c>
@@ -8828,7 +8857,7 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -8858,7 +8887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>270</v>
       </c>
@@ -8866,7 +8895,7 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -8896,7 +8925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>269</v>
       </c>
@@ -8904,7 +8933,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -8934,7 +8963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>268</v>
       </c>
@@ -8942,7 +8971,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -8972,7 +9001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>267</v>
       </c>
@@ -8980,7 +9009,7 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -9010,7 +9039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>266</v>
       </c>
@@ -9018,7 +9047,7 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -9048,7 +9077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>265</v>
       </c>
@@ -9056,7 +9085,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -9086,7 +9115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>264</v>
       </c>
@@ -9094,7 +9123,7 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -9124,7 +9153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>263</v>
       </c>
@@ -9132,7 +9161,7 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -9162,7 +9191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>262</v>
       </c>
@@ -9170,7 +9199,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -9200,7 +9229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>261</v>
       </c>
@@ -9208,7 +9237,7 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -9238,7 +9267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>260</v>
       </c>
@@ -9246,7 +9275,7 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -9276,7 +9305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>259</v>
       </c>
@@ -9284,7 +9313,7 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -9322,33 +9351,33 @@
         <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>192</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <v>1</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205">
-        <v>1</v>
-      </c>
-      <c r="K205" t="s">
-        <v>18</v>
-      </c>
-      <c r="L205" t="s">
+        <v>448</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="2">
+        <v>0</v>
+      </c>
+      <c r="F205" s="2">
+        <v>1</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2">
+        <v>1</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L205" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9360,37 +9389,37 @@
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>193</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <v>1</v>
-      </c>
-      <c r="K206" t="s">
-        <v>18</v>
-      </c>
-      <c r="L206" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0</v>
+      </c>
+      <c r="F206" s="2">
+        <v>1</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2">
+        <v>1</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>256</v>
       </c>
@@ -9398,7 +9427,7 @@
         <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -9428,7 +9457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>255</v>
       </c>
@@ -9436,7 +9465,7 @@
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -9466,7 +9495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>254</v>
       </c>
@@ -9474,7 +9503,7 @@
         <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -9504,7 +9533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>253</v>
       </c>
@@ -9512,7 +9541,7 @@
         <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -9542,7 +9571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>252</v>
       </c>
@@ -9550,7 +9579,7 @@
         <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -9580,7 +9609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>251</v>
       </c>
@@ -9588,7 +9617,7 @@
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -9618,7 +9647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>250</v>
       </c>
@@ -9626,7 +9655,7 @@
         <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -9656,7 +9685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>249</v>
       </c>
@@ -9664,7 +9693,7 @@
         <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -9694,7 +9723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>248</v>
       </c>
@@ -9702,7 +9731,7 @@
         <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -9732,7 +9761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>247</v>
       </c>
@@ -9740,7 +9769,7 @@
         <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -9770,7 +9799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>246</v>
       </c>
@@ -9778,7 +9807,7 @@
         <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9808,7 +9837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>245</v>
       </c>
@@ -9816,7 +9845,7 @@
         <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -9846,7 +9875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>244</v>
       </c>
@@ -9854,7 +9883,7 @@
         <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9884,7 +9913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>243</v>
       </c>
@@ -9892,7 +9921,7 @@
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -9922,7 +9951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>242</v>
       </c>
@@ -9930,7 +9959,7 @@
         <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -9960,7 +9989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>241</v>
       </c>
@@ -9968,7 +9997,7 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -9998,7 +10027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>240</v>
       </c>
@@ -10006,7 +10035,7 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -10036,7 +10065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>239</v>
       </c>
@@ -10044,7 +10073,7 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -10074,7 +10103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>238</v>
       </c>
@@ -10082,7 +10111,7 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -10112,7 +10141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>237</v>
       </c>
@@ -10120,7 +10149,7 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -10150,7 +10179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>236</v>
       </c>
@@ -10158,7 +10187,7 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -10188,7 +10217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>235</v>
       </c>
@@ -10196,7 +10225,7 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -10226,7 +10255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>234</v>
       </c>
@@ -10234,7 +10263,7 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -10264,7 +10293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>233</v>
       </c>
@@ -10272,7 +10301,7 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -10302,7 +10331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>232</v>
       </c>
@@ -10310,7 +10339,7 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -10340,7 +10369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10348,7 +10377,7 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -10378,7 +10407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>230</v>
       </c>
@@ -10386,7 +10415,7 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -10416,7 +10445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>229</v>
       </c>
@@ -10424,7 +10453,7 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -10454,7 +10483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>228</v>
       </c>
@@ -10462,7 +10491,7 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -10492,7 +10521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>227</v>
       </c>
@@ -10500,7 +10529,7 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -10530,7 +10559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>226</v>
       </c>
@@ -10538,7 +10567,7 @@
         <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -10568,7 +10597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>225</v>
       </c>
@@ -10576,7 +10605,7 @@
         <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -10606,7 +10635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>224</v>
       </c>
@@ -10614,7 +10643,7 @@
         <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -10644,7 +10673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>223</v>
       </c>
@@ -10652,7 +10681,7 @@
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -10682,7 +10711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>222</v>
       </c>
@@ -10690,7 +10719,7 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -10720,7 +10749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>221</v>
       </c>
@@ -10728,7 +10757,7 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -10758,7 +10787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>220</v>
       </c>
@@ -10766,7 +10795,7 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -10796,7 +10825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>219</v>
       </c>
@@ -10804,7 +10833,7 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -10834,7 +10863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>218</v>
       </c>
@@ -10842,7 +10871,7 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -10872,7 +10901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>217</v>
       </c>
@@ -10880,7 +10909,7 @@
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -10910,7 +10939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>216</v>
       </c>
@@ -10918,7 +10947,7 @@
         <v>2</v>
       </c>
       <c r="C247" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -10948,7 +10977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>215</v>
       </c>
@@ -10956,7 +10985,7 @@
         <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -10986,7 +11015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>214</v>
       </c>
@@ -10994,7 +11023,7 @@
         <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -11024,7 +11053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>213</v>
       </c>
@@ -11032,7 +11061,7 @@
         <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -11062,7 +11091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>212</v>
       </c>
@@ -11070,7 +11099,7 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -11100,7 +11129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>211</v>
       </c>
@@ -11108,7 +11137,7 @@
         <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -11138,7 +11167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>210</v>
       </c>
@@ -11146,7 +11175,7 @@
         <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -11176,7 +11205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>209</v>
       </c>
@@ -11184,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -11214,7 +11243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>208</v>
       </c>
@@ -11222,7 +11251,7 @@
         <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -11252,7 +11281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>207</v>
       </c>
@@ -11260,7 +11289,7 @@
         <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -11290,7 +11319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>206</v>
       </c>
@@ -11298,7 +11327,7 @@
         <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -11328,7 +11357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>205</v>
       </c>
@@ -11336,7 +11365,7 @@
         <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -11366,7 +11395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>204</v>
       </c>
@@ -11374,7 +11403,7 @@
         <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -11404,7 +11433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>203</v>
       </c>
@@ -11412,7 +11441,7 @@
         <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -11442,7 +11471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>202</v>
       </c>
@@ -11450,7 +11479,7 @@
         <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -11480,7 +11509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>201</v>
       </c>
@@ -11488,7 +11517,7 @@
         <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -11518,7 +11547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>200</v>
       </c>
@@ -11526,7 +11555,7 @@
         <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -11556,7 +11585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>199</v>
       </c>
@@ -11564,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -11594,7 +11623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>198</v>
       </c>
@@ -11602,7 +11631,7 @@
         <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -11632,7 +11661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>197</v>
       </c>
@@ -11640,7 +11669,7 @@
         <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -11670,7 +11699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>196</v>
       </c>
@@ -11678,7 +11707,7 @@
         <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -11708,7 +11737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>195</v>
       </c>
@@ -11716,7 +11745,7 @@
         <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -11746,7 +11775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>194</v>
       </c>
@@ -11754,7 +11783,7 @@
         <v>2</v>
       </c>
       <c r="C269" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -11784,7 +11813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>193</v>
       </c>
@@ -11792,7 +11821,7 @@
         <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -11822,7 +11851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>192</v>
       </c>
@@ -11830,7 +11859,7 @@
         <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -11860,7 +11889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>191</v>
       </c>
@@ -11868,7 +11897,7 @@
         <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -11898,7 +11927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>190</v>
       </c>
@@ -11906,7 +11935,7 @@
         <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -11936,7 +11965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>189</v>
       </c>
@@ -11944,7 +11973,7 @@
         <v>14</v>
       </c>
       <c r="C274" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -11974,7 +12003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>188</v>
       </c>
@@ -11982,7 +12011,7 @@
         <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -12012,7 +12041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>187</v>
       </c>
@@ -12020,7 +12049,7 @@
         <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -12050,7 +12079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>186</v>
       </c>
@@ -12058,7 +12087,7 @@
         <v>14</v>
       </c>
       <c r="C277" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -12088,7 +12117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>185</v>
       </c>
@@ -12096,7 +12125,7 @@
         <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -12126,7 +12155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>184</v>
       </c>
@@ -12134,7 +12163,7 @@
         <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -12164,7 +12193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>183</v>
       </c>
@@ -12172,7 +12201,7 @@
         <v>14</v>
       </c>
       <c r="C280" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -12202,7 +12231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>182</v>
       </c>
@@ -12210,7 +12239,7 @@
         <v>14</v>
       </c>
       <c r="C281" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -12240,7 +12269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>181</v>
       </c>
@@ -12248,7 +12277,7 @@
         <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -12278,7 +12307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>180</v>
       </c>
@@ -12286,7 +12315,7 @@
         <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -12316,7 +12345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>179</v>
       </c>
@@ -12324,7 +12353,7 @@
         <v>14</v>
       </c>
       <c r="C284" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -12354,7 +12383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>178</v>
       </c>
@@ -12362,7 +12391,7 @@
         <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -12392,7 +12421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>177</v>
       </c>
@@ -12400,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -12430,7 +12459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>176</v>
       </c>
@@ -12438,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -12468,7 +12497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>175</v>
       </c>
@@ -12476,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -12506,7 +12535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>174</v>
       </c>
@@ -12514,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -12544,7 +12573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>173</v>
       </c>
@@ -12552,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -12582,7 +12611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>172</v>
       </c>
@@ -12590,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -12620,7 +12649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>171</v>
       </c>
@@ -12628,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -12658,7 +12687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>170</v>
       </c>
@@ -12666,7 +12695,7 @@
         <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -12696,7 +12725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>169</v>
       </c>
@@ -12704,7 +12733,7 @@
         <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -12734,7 +12763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>168</v>
       </c>
@@ -12742,7 +12771,7 @@
         <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -12772,7 +12801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>167</v>
       </c>
@@ -12780,7 +12809,7 @@
         <v>8</v>
       </c>
       <c r="C296" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -12810,7 +12839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>166</v>
       </c>
@@ -12818,7 +12847,7 @@
         <v>8</v>
       </c>
       <c r="C297" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -12848,7 +12877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>165</v>
       </c>
@@ -12856,7 +12885,7 @@
         <v>8</v>
       </c>
       <c r="C298" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -12886,7 +12915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>164</v>
       </c>
@@ -12894,7 +12923,7 @@
         <v>8</v>
       </c>
       <c r="C299" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -12924,7 +12953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>163</v>
       </c>
@@ -12932,7 +12961,7 @@
         <v>8</v>
       </c>
       <c r="C300" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -12962,7 +12991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>162</v>
       </c>
@@ -12970,7 +12999,7 @@
         <v>8</v>
       </c>
       <c r="C301" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -13000,7 +13029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>161</v>
       </c>
@@ -13008,7 +13037,7 @@
         <v>8</v>
       </c>
       <c r="C302" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -13038,7 +13067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>160</v>
       </c>
@@ -13046,7 +13075,7 @@
         <v>8</v>
       </c>
       <c r="C303" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -13076,7 +13105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>159</v>
       </c>
@@ -13084,7 +13113,7 @@
         <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -13114,7 +13143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>158</v>
       </c>
@@ -13122,7 +13151,7 @@
         <v>8</v>
       </c>
       <c r="C305" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -13152,7 +13181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>157</v>
       </c>
@@ -13160,7 +13189,7 @@
         <v>8</v>
       </c>
       <c r="C306" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -13190,7 +13219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>156</v>
       </c>
@@ -13198,7 +13227,7 @@
         <v>8</v>
       </c>
       <c r="C307" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -13228,7 +13257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>155</v>
       </c>
@@ -13236,7 +13265,7 @@
         <v>12</v>
       </c>
       <c r="C308" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D308">
         <v>55.4</v>
@@ -13266,7 +13295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>154</v>
       </c>
@@ -13274,7 +13303,7 @@
         <v>12</v>
       </c>
       <c r="C309" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D309">
         <v>53.78</v>
@@ -13304,7 +13333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>153</v>
       </c>
@@ -13312,7 +13341,7 @@
         <v>12</v>
       </c>
       <c r="C310" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D310">
         <v>50.74</v>
@@ -13342,7 +13371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>152</v>
       </c>
@@ -13350,7 +13379,7 @@
         <v>12</v>
       </c>
       <c r="C311" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D311">
         <v>28.2</v>
@@ -13380,7 +13409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>151</v>
       </c>
@@ -13388,7 +13417,7 @@
         <v>12</v>
       </c>
       <c r="C312" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D312">
         <v>19.93</v>
@@ -13418,7 +13447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>150</v>
       </c>
@@ -13426,7 +13455,7 @@
         <v>12</v>
       </c>
       <c r="C313" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D313">
         <v>14.72</v>
@@ -13456,7 +13485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>149</v>
       </c>
@@ -13464,7 +13493,7 @@
         <v>3</v>
       </c>
       <c r="C314" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D314">
         <v>12.64</v>
@@ -13494,7 +13523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>148</v>
       </c>
@@ -13502,7 +13531,7 @@
         <v>3</v>
       </c>
       <c r="C315" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -13532,7 +13561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>147</v>
       </c>
@@ -13540,7 +13569,7 @@
         <v>3</v>
       </c>
       <c r="C316" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D316">
         <v>24.7</v>
@@ -13570,7 +13599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>146</v>
       </c>
@@ -13578,7 +13607,7 @@
         <v>3</v>
       </c>
       <c r="C317" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D317">
         <v>6.63</v>
@@ -13608,7 +13637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>145</v>
       </c>
@@ -13616,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="C318" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D318">
         <v>4.7300000000000004</v>
@@ -13646,7 +13675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>144</v>
       </c>
@@ -13654,7 +13683,7 @@
         <v>3</v>
       </c>
       <c r="C319" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D319">
         <v>3.56</v>
@@ -13684,7 +13713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>143</v>
       </c>
@@ -13692,7 +13721,7 @@
         <v>3</v>
       </c>
       <c r="C320" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D320">
         <v>3.45</v>
@@ -13722,7 +13751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>142</v>
       </c>
@@ -13730,7 +13759,7 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D321">
         <v>48.05</v>
@@ -13760,7 +13789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>141</v>
       </c>
@@ -13768,7 +13797,7 @@
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D322">
         <v>43.13</v>
@@ -13798,7 +13827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>140</v>
       </c>
@@ -13806,7 +13835,7 @@
         <v>4</v>
       </c>
       <c r="C323" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D323">
         <v>40.659999999999997</v>
@@ -13836,7 +13865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>139</v>
       </c>
@@ -13844,7 +13873,7 @@
         <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D324">
         <v>33.08</v>
@@ -13874,7 +13903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>138</v>
       </c>
@@ -13882,7 +13911,7 @@
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D325">
         <v>7.8</v>
@@ -13912,7 +13941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>137</v>
       </c>
@@ -13920,7 +13949,7 @@
         <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D326">
         <v>1.75</v>
@@ -13958,33 +13987,33 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>314</v>
-      </c>
-      <c r="D327">
+        <v>446</v>
+      </c>
+      <c r="D327" s="2">
         <v>24.58</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="2">
         <v>24.58</v>
       </c>
-      <c r="F327">
-        <v>1</v>
-      </c>
-      <c r="G327">
-        <v>0</v>
-      </c>
-      <c r="H327">
-        <v>0</v>
-      </c>
-      <c r="I327">
-        <v>0</v>
-      </c>
-      <c r="J327">
+      <c r="F327" s="2">
+        <v>1</v>
+      </c>
+      <c r="G327" s="2">
+        <v>0</v>
+      </c>
+      <c r="H327" s="2">
+        <v>0</v>
+      </c>
+      <c r="I327" s="2">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2">
         <v>6</v>
       </c>
-      <c r="K327" t="s">
-        <v>18</v>
-      </c>
-      <c r="L327" t="s">
+      <c r="K327" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L327" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -13996,37 +14025,37 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>315</v>
-      </c>
-      <c r="D328">
+        <v>447</v>
+      </c>
+      <c r="D328" s="2">
         <v>15.16</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="2">
         <v>15.16</v>
       </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>0</v>
-      </c>
-      <c r="H328">
-        <v>0</v>
-      </c>
-      <c r="I328">
-        <v>0</v>
-      </c>
-      <c r="J328">
+      <c r="F328" s="2">
+        <v>1</v>
+      </c>
+      <c r="G328" s="2">
+        <v>0</v>
+      </c>
+      <c r="H328" s="2">
+        <v>0</v>
+      </c>
+      <c r="I328" s="2">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2">
         <v>6</v>
       </c>
-      <c r="K328" t="s">
-        <v>18</v>
-      </c>
-      <c r="L328" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K328" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L328" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>134</v>
       </c>
@@ -14034,7 +14063,7 @@
         <v>13</v>
       </c>
       <c r="C329" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D329">
         <v>81.03</v>
@@ -14064,7 +14093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>133</v>
       </c>
@@ -14072,7 +14101,7 @@
         <v>13</v>
       </c>
       <c r="C330" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D330">
         <v>79.75</v>
@@ -14102,7 +14131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>132</v>
       </c>
@@ -14110,7 +14139,7 @@
         <v>13</v>
       </c>
       <c r="C331" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D331">
         <v>79.239999999999995</v>
@@ -14140,7 +14169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>131</v>
       </c>
@@ -14148,7 +14177,7 @@
         <v>13</v>
       </c>
       <c r="C332" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D332">
         <v>77.61</v>
@@ -14178,7 +14207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>130</v>
       </c>
@@ -14186,7 +14215,7 @@
         <v>13</v>
       </c>
       <c r="C333" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D333">
         <v>76.38</v>
@@ -14216,7 +14245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>129</v>
       </c>
@@ -14224,7 +14253,7 @@
         <v>13</v>
       </c>
       <c r="C334" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D334">
         <v>70.5</v>
@@ -14254,7 +14283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>128</v>
       </c>
@@ -14262,7 +14291,7 @@
         <v>13</v>
       </c>
       <c r="C335" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D335">
         <v>63.25</v>
@@ -14292,7 +14321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>127</v>
       </c>
@@ -14300,7 +14329,7 @@
         <v>13</v>
       </c>
       <c r="C336" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D336">
         <v>60.35</v>
@@ -14330,7 +14359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>126</v>
       </c>
@@ -14338,7 +14367,7 @@
         <v>13</v>
       </c>
       <c r="C337" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D337">
         <v>50.01</v>
@@ -14368,7 +14397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>125</v>
       </c>
@@ -14376,7 +14405,7 @@
         <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D338">
         <v>24.23</v>
@@ -14406,7 +14435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>124</v>
       </c>
@@ -14414,7 +14443,7 @@
         <v>10</v>
       </c>
       <c r="C339" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D339">
         <v>2.74</v>
@@ -14444,7 +14473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>123</v>
       </c>
@@ -14452,7 +14481,7 @@
         <v>7</v>
       </c>
       <c r="C340" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D340">
         <v>23.6</v>
@@ -14482,7 +14511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>122</v>
       </c>
@@ -14490,7 +14519,7 @@
         <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D341">
         <v>22.3</v>
@@ -14520,7 +14549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>121</v>
       </c>
@@ -14528,7 +14557,7 @@
         <v>7</v>
       </c>
       <c r="C342" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D342">
         <v>19.5</v>
@@ -14558,7 +14587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>120</v>
       </c>
@@ -14566,7 +14595,7 @@
         <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D343">
         <v>18.239999999999998</v>
@@ -14596,7 +14625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>119</v>
       </c>
@@ -14604,7 +14633,7 @@
         <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D344">
         <v>13.7</v>
@@ -14634,7 +14663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>118</v>
       </c>
@@ -14642,7 +14671,7 @@
         <v>2</v>
       </c>
       <c r="C345" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D345">
         <v>11.21</v>
@@ -14672,7 +14701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>117</v>
       </c>
@@ -14680,7 +14709,7 @@
         <v>2</v>
       </c>
       <c r="C346" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D346">
         <v>9.39</v>
@@ -14710,7 +14739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>116</v>
       </c>
@@ -14718,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="C347" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D347">
         <v>6.65</v>
@@ -14748,7 +14777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>115</v>
       </c>
@@ -14756,7 +14785,7 @@
         <v>14</v>
       </c>
       <c r="C348" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D348">
         <v>11.17</v>
@@ -14786,7 +14815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>114</v>
       </c>
@@ -14794,7 +14823,7 @@
         <v>14</v>
       </c>
       <c r="C349" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D349">
         <v>10.48</v>
@@ -14824,7 +14853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>113</v>
       </c>
@@ -14832,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D350">
         <v>14</v>
@@ -14862,7 +14891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>112</v>
       </c>
@@ -14870,7 +14899,7 @@
         <v>8</v>
       </c>
       <c r="C351" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D351">
         <v>7.74</v>
@@ -14900,7 +14929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>111</v>
       </c>
@@ -14908,7 +14937,7 @@
         <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D352">
         <v>18.559999999999999</v>
@@ -14938,7 +14967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>110</v>
       </c>
@@ -14946,7 +14975,7 @@
         <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D353">
         <v>16.329999999999998</v>
@@ -14976,7 +15005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>109</v>
       </c>
@@ -14984,7 +15013,7 @@
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D354">
         <v>4.93</v>
@@ -15014,7 +15043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>108</v>
       </c>
@@ -15022,7 +15051,7 @@
         <v>3</v>
       </c>
       <c r="C355" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D355">
         <v>12.3</v>
@@ -15052,7 +15081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>107</v>
       </c>
@@ -15060,7 +15089,7 @@
         <v>3</v>
       </c>
       <c r="C356" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D356">
         <v>9.24</v>
@@ -15090,7 +15119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>106</v>
       </c>
@@ -15098,7 +15127,7 @@
         <v>3</v>
       </c>
       <c r="C357" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D357">
         <v>6.33</v>
@@ -15128,7 +15157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>105</v>
       </c>
@@ -15136,7 +15165,7 @@
         <v>3</v>
       </c>
       <c r="C358" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D358">
         <v>3.46</v>
@@ -15166,7 +15195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>104</v>
       </c>
@@ -15174,7 +15203,7 @@
         <v>3</v>
       </c>
       <c r="C359" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D359">
         <v>1.54</v>
@@ -15204,7 +15233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>103</v>
       </c>
@@ -15212,7 +15241,7 @@
         <v>3</v>
       </c>
       <c r="C360" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D360">
         <v>0.4</v>
@@ -15242,7 +15271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>102</v>
       </c>
@@ -15250,7 +15279,7 @@
         <v>3</v>
       </c>
       <c r="C361" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D361">
         <v>0.1</v>
@@ -15280,7 +15309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>101</v>
       </c>
@@ -15288,7 +15317,7 @@
         <v>4</v>
       </c>
       <c r="C362" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D362">
         <v>38.74</v>
@@ -15318,7 +15347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>100</v>
       </c>
@@ -15326,7 +15355,7 @@
         <v>4</v>
       </c>
       <c r="C363" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D363">
         <v>27.77</v>
@@ -15356,7 +15385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>99</v>
       </c>
@@ -15364,7 +15393,7 @@
         <v>4</v>
       </c>
       <c r="C364" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D364">
         <v>26.98</v>
@@ -15394,7 +15423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>98</v>
       </c>
@@ -15402,7 +15431,7 @@
         <v>4</v>
       </c>
       <c r="C365" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D365">
         <v>22.27</v>
@@ -15432,7 +15461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>97</v>
       </c>
@@ -15440,7 +15469,7 @@
         <v>4</v>
       </c>
       <c r="C366" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D366">
         <v>12.56</v>
@@ -15470,7 +15499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>96</v>
       </c>
@@ -15478,7 +15507,7 @@
         <v>4</v>
       </c>
       <c r="C367" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D367">
         <v>3.1</v>
@@ -15508,7 +15537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>95</v>
       </c>
@@ -15516,7 +15545,7 @@
         <v>13</v>
       </c>
       <c r="C368" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D368">
         <v>70.599999999999994</v>
@@ -15546,7 +15575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>94</v>
       </c>
@@ -15554,7 +15583,7 @@
         <v>13</v>
       </c>
       <c r="C369" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D369">
         <v>69.7</v>
@@ -15584,7 +15613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>93</v>
       </c>
@@ -15592,7 +15621,7 @@
         <v>13</v>
       </c>
       <c r="C370" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D370">
         <v>42.78</v>
@@ -15622,7 +15651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>92</v>
       </c>
@@ -15630,7 +15659,7 @@
         <v>13</v>
       </c>
       <c r="C371" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D371">
         <v>17.28</v>
@@ -15660,7 +15689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>91</v>
       </c>
@@ -15668,7 +15697,7 @@
         <v>6</v>
       </c>
       <c r="C372" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D372">
         <v>9.84</v>
@@ -15698,7 +15727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>90</v>
       </c>
@@ -15706,7 +15735,7 @@
         <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D373">
         <v>17.71</v>
@@ -15736,7 +15765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>89</v>
       </c>
@@ -15744,7 +15773,7 @@
         <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D374">
         <v>23.46</v>
@@ -15774,7 +15803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>88</v>
       </c>
@@ -15782,7 +15811,7 @@
         <v>9</v>
       </c>
       <c r="C375" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D375">
         <v>12.38</v>
@@ -15812,7 +15841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>87</v>
       </c>
@@ -15820,7 +15849,7 @@
         <v>9</v>
       </c>
       <c r="C376" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D376">
         <v>0.02</v>
@@ -15850,7 +15879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>86</v>
       </c>
@@ -15858,7 +15887,7 @@
         <v>7</v>
       </c>
       <c r="C377" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D377">
         <v>7.5</v>
@@ -15888,7 +15917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>85</v>
       </c>
@@ -15896,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="C378" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D378">
         <v>44.2</v>
@@ -15926,7 +15955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>84</v>
       </c>
@@ -15934,7 +15963,7 @@
         <v>2</v>
       </c>
       <c r="C379" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D379">
         <v>39.07</v>
@@ -15964,7 +15993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>83</v>
       </c>
@@ -15972,7 +16001,7 @@
         <v>2</v>
       </c>
       <c r="C380" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D380">
         <v>24.06</v>
@@ -16002,7 +16031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>82</v>
       </c>
@@ -16010,7 +16039,7 @@
         <v>2</v>
       </c>
       <c r="C381" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D381">
         <v>12.44</v>
@@ -16040,7 +16069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>81</v>
       </c>
@@ -16048,7 +16077,7 @@
         <v>14</v>
       </c>
       <c r="C382" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D382">
         <v>23.38</v>
@@ -16078,7 +16107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>80</v>
       </c>
@@ -16086,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="C383" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D383">
         <v>33.299999999999997</v>
@@ -16116,7 +16145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>79</v>
       </c>
@@ -16124,7 +16153,7 @@
         <v>1</v>
       </c>
       <c r="C384" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D384">
         <v>27</v>
@@ -16154,7 +16183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>78</v>
       </c>
@@ -16162,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="C385" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D385">
         <v>14.05</v>
@@ -16192,7 +16221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>77</v>
       </c>
@@ -16200,7 +16229,7 @@
         <v>8</v>
       </c>
       <c r="C386" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D386">
         <v>21.77</v>
@@ -16230,7 +16259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>76</v>
       </c>
@@ -16238,7 +16267,7 @@
         <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D387">
         <v>27.51</v>
@@ -16268,7 +16297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>75</v>
       </c>
@@ -16276,7 +16305,7 @@
         <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D388">
         <v>26.45</v>
@@ -16306,7 +16335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>74</v>
       </c>
@@ -16314,7 +16343,7 @@
         <v>12</v>
       </c>
       <c r="C389" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D389">
         <v>25.72</v>
@@ -16344,7 +16373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>73</v>
       </c>
@@ -16352,7 +16381,7 @@
         <v>12</v>
       </c>
       <c r="C390" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D390">
         <v>24.16</v>
@@ -16382,7 +16411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>72</v>
       </c>
@@ -16390,7 +16419,7 @@
         <v>12</v>
       </c>
       <c r="C391" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D391">
         <v>20.77</v>
@@ -16420,7 +16449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>71</v>
       </c>
@@ -16428,7 +16457,7 @@
         <v>12</v>
       </c>
       <c r="C392" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D392">
         <v>15.64</v>
@@ -16458,7 +16487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>70</v>
       </c>
@@ -16466,7 +16495,7 @@
         <v>3</v>
       </c>
       <c r="C393" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D393">
         <v>9.25</v>
@@ -16496,7 +16525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>69</v>
       </c>
@@ -16504,7 +16533,7 @@
         <v>3</v>
       </c>
       <c r="C394" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D394">
         <v>5</v>
@@ -16534,7 +16563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>68</v>
       </c>
@@ -16542,7 +16571,7 @@
         <v>3</v>
       </c>
       <c r="C395" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D395">
         <v>2.0699999999999998</v>
@@ -16572,7 +16601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>67</v>
       </c>
@@ -16580,7 +16609,7 @@
         <v>4</v>
       </c>
       <c r="C396" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D396">
         <v>54.42</v>
@@ -16610,7 +16639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>66</v>
       </c>
@@ -16618,7 +16647,7 @@
         <v>4</v>
       </c>
       <c r="C397" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D397">
         <v>47.31</v>
@@ -16648,7 +16677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>65</v>
       </c>
@@ -16656,7 +16685,7 @@
         <v>4</v>
       </c>
       <c r="C398" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D398">
         <v>34.28</v>
@@ -16686,7 +16715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>64</v>
       </c>
@@ -16694,7 +16723,7 @@
         <v>4</v>
       </c>
       <c r="C399" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D399">
         <v>22.27</v>
@@ -16732,33 +16761,33 @@
         <v>11</v>
       </c>
       <c r="C400" t="s">
-        <v>387</v>
-      </c>
-      <c r="D400">
+        <v>439</v>
+      </c>
+      <c r="D400" s="2">
         <v>29.67</v>
       </c>
-      <c r="E400">
+      <c r="E400" s="2">
         <v>29.67</v>
       </c>
-      <c r="F400">
-        <v>1</v>
-      </c>
-      <c r="G400">
-        <v>0</v>
-      </c>
-      <c r="H400">
-        <v>4</v>
-      </c>
-      <c r="I400">
-        <v>0</v>
-      </c>
-      <c r="J400">
+      <c r="F400" s="2">
+        <v>1</v>
+      </c>
+      <c r="G400" s="2">
+        <v>0</v>
+      </c>
+      <c r="H400" s="2">
+        <v>1</v>
+      </c>
+      <c r="I400" s="2">
+        <v>0</v>
+      </c>
+      <c r="J400" s="2">
         <v>3</v>
       </c>
-      <c r="K400" t="s">
-        <v>18</v>
-      </c>
-      <c r="L400" t="s">
+      <c r="K400" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L400" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -16770,33 +16799,33 @@
         <v>11</v>
       </c>
       <c r="C401" t="s">
-        <v>388</v>
-      </c>
-      <c r="D401">
+        <v>437</v>
+      </c>
+      <c r="D401" s="2">
         <v>27.27</v>
       </c>
-      <c r="E401">
+      <c r="E401" s="2">
         <v>27.27</v>
       </c>
-      <c r="F401">
-        <v>1</v>
-      </c>
-      <c r="G401">
-        <v>0</v>
-      </c>
-      <c r="H401">
-        <v>1</v>
-      </c>
-      <c r="I401">
-        <v>0</v>
-      </c>
-      <c r="J401">
+      <c r="F401" s="2">
+        <v>1</v>
+      </c>
+      <c r="G401" s="2">
+        <v>0</v>
+      </c>
+      <c r="H401" s="2">
+        <v>1</v>
+      </c>
+      <c r="I401" s="2">
+        <v>0</v>
+      </c>
+      <c r="J401" s="2">
         <v>3</v>
       </c>
-      <c r="K401" t="s">
-        <v>18</v>
-      </c>
-      <c r="L401" t="s">
+      <c r="K401" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L401" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -16808,33 +16837,33 @@
         <v>11</v>
       </c>
       <c r="C402" t="s">
-        <v>389</v>
-      </c>
-      <c r="D402">
+        <v>438</v>
+      </c>
+      <c r="D402" s="2">
         <v>18.02</v>
       </c>
-      <c r="E402">
+      <c r="E402" s="2">
         <v>18.02</v>
       </c>
-      <c r="F402">
-        <v>1</v>
-      </c>
-      <c r="G402">
-        <v>0</v>
-      </c>
-      <c r="H402">
-        <v>1</v>
-      </c>
-      <c r="I402">
-        <v>0</v>
-      </c>
-      <c r="J402">
+      <c r="F402" s="2">
+        <v>1</v>
+      </c>
+      <c r="G402" s="2">
+        <v>0</v>
+      </c>
+      <c r="H402" s="2">
+        <v>1</v>
+      </c>
+      <c r="I402" s="2">
+        <v>0</v>
+      </c>
+      <c r="J402" s="2">
         <v>3</v>
       </c>
-      <c r="K402" t="s">
-        <v>18</v>
-      </c>
-      <c r="L402" t="s">
+      <c r="K402" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L402" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -16846,37 +16875,37 @@
         <v>11</v>
       </c>
       <c r="C403" t="s">
-        <v>390</v>
-      </c>
-      <c r="D403">
+        <v>440</v>
+      </c>
+      <c r="D403" s="2">
         <v>7.61</v>
       </c>
-      <c r="E403">
+      <c r="E403" s="2">
         <v>7.61</v>
       </c>
-      <c r="F403">
-        <v>1</v>
-      </c>
-      <c r="G403">
-        <v>0</v>
-      </c>
-      <c r="H403">
-        <v>1</v>
-      </c>
-      <c r="I403">
-        <v>0</v>
-      </c>
-      <c r="J403">
+      <c r="F403" s="2">
+        <v>1</v>
+      </c>
+      <c r="G403" s="2">
+        <v>0</v>
+      </c>
+      <c r="H403" s="2">
+        <v>4</v>
+      </c>
+      <c r="I403" s="2">
+        <v>0</v>
+      </c>
+      <c r="J403" s="2">
         <v>3</v>
       </c>
-      <c r="K403" t="s">
-        <v>18</v>
-      </c>
-      <c r="L403" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K403" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L403" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>59</v>
       </c>
@@ -16884,7 +16913,7 @@
         <v>13</v>
       </c>
       <c r="C404" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D404">
         <v>81.2</v>
@@ -16914,7 +16943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>58</v>
       </c>
@@ -16922,7 +16951,7 @@
         <v>13</v>
       </c>
       <c r="C405" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D405">
         <v>72.66</v>
@@ -16952,7 +16981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>57</v>
       </c>
@@ -16960,7 +16989,7 @@
         <v>13</v>
       </c>
       <c r="C406" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D406">
         <v>65.45</v>
@@ -16990,7 +17019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>56</v>
       </c>
@@ -16998,7 +17027,7 @@
         <v>13</v>
       </c>
       <c r="C407" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D407">
         <v>51.58</v>
@@ -17028,7 +17057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>55</v>
       </c>
@@ -17036,7 +17065,7 @@
         <v>13</v>
       </c>
       <c r="C408" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D408">
         <v>46.9</v>
@@ -17066,7 +17095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>54</v>
       </c>
@@ -17074,7 +17103,7 @@
         <v>13</v>
       </c>
       <c r="C409" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D409">
         <v>35.97</v>
@@ -17104,7 +17133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>53</v>
       </c>
@@ -17112,7 +17141,7 @@
         <v>13</v>
       </c>
       <c r="C410" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D410">
         <v>33.69</v>
@@ -17142,7 +17171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>52</v>
       </c>
@@ -17150,7 +17179,7 @@
         <v>6</v>
       </c>
       <c r="C411" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D411">
         <v>17.739999999999998</v>
@@ -17180,7 +17209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>51</v>
       </c>
@@ -17188,7 +17217,7 @@
         <v>6</v>
       </c>
       <c r="C412" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D412">
         <v>16.170000000000002</v>
@@ -17218,7 +17247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>50</v>
       </c>
@@ -17226,7 +17255,7 @@
         <v>6</v>
       </c>
       <c r="C413" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D413">
         <v>8.24</v>
@@ -17256,7 +17285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>49</v>
       </c>
@@ -17264,7 +17293,7 @@
         <v>6</v>
       </c>
       <c r="C414" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D414">
         <v>5.13</v>
@@ -17294,7 +17323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>48</v>
       </c>
@@ -17302,7 +17331,7 @@
         <v>9</v>
       </c>
       <c r="C415" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D415">
         <v>23.19</v>
@@ -17332,7 +17361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>47</v>
       </c>
@@ -17340,7 +17369,7 @@
         <v>10</v>
       </c>
       <c r="C416" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D416">
         <v>5.73</v>
@@ -17370,7 +17399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>46</v>
       </c>
@@ -17378,7 +17407,7 @@
         <v>10</v>
       </c>
       <c r="C417" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D417">
         <v>12.25</v>
@@ -17408,7 +17437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>45</v>
       </c>
@@ -17416,7 +17445,7 @@
         <v>7</v>
       </c>
       <c r="C418" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D418">
         <v>16.100000000000001</v>
@@ -17446,7 +17475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>44</v>
       </c>
@@ -17454,7 +17483,7 @@
         <v>7</v>
       </c>
       <c r="C419" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D419">
         <v>24.4</v>
@@ -17484,7 +17513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>43</v>
       </c>
@@ -17492,7 +17521,7 @@
         <v>2</v>
       </c>
       <c r="C420" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D420">
         <v>44.15</v>
@@ -17522,7 +17551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>42</v>
       </c>
@@ -17530,7 +17559,7 @@
         <v>2</v>
       </c>
       <c r="C421" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D421">
         <v>33.799999999999997</v>
@@ -17560,7 +17589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>41</v>
       </c>
@@ -17568,7 +17597,7 @@
         <v>2</v>
       </c>
       <c r="C422" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D422">
         <v>14.52</v>
@@ -17598,7 +17627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>40</v>
       </c>
@@ -17606,7 +17635,7 @@
         <v>2</v>
       </c>
       <c r="C423" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D423">
         <v>5.56</v>
@@ -17636,7 +17665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>39</v>
       </c>
@@ -17644,7 +17673,7 @@
         <v>2</v>
       </c>
       <c r="C424" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D424">
         <v>6.04</v>
@@ -17674,7 +17703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>38</v>
       </c>
@@ -17682,7 +17711,7 @@
         <v>2</v>
       </c>
       <c r="C425" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D425">
         <v>4.07</v>
@@ -17712,7 +17741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>37</v>
       </c>
@@ -17720,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="C426" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D426">
         <v>2.09</v>
@@ -17750,7 +17779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>36</v>
       </c>
@@ -17758,7 +17787,7 @@
         <v>14</v>
       </c>
       <c r="C427" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D427">
         <v>22.64</v>
@@ -17788,7 +17817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>34</v>
       </c>
@@ -17796,7 +17825,7 @@
         <v>14</v>
       </c>
       <c r="C428" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D428">
         <v>16.13</v>
@@ -17826,7 +17855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>33</v>
       </c>
@@ -17834,7 +17863,7 @@
         <v>14</v>
       </c>
       <c r="C429" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D429">
         <v>4.7699999999999996</v>
@@ -17864,7 +17893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>32</v>
       </c>
@@ -17872,7 +17901,7 @@
         <v>14</v>
       </c>
       <c r="C430" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D430">
         <v>1.64</v>
@@ -17902,7 +17931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>31</v>
       </c>
@@ -17910,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="C431" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D431">
         <v>35.200000000000003</v>
@@ -17940,7 +17969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>30</v>
       </c>
@@ -17948,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="C432" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D432">
         <v>23.4</v>
@@ -17978,7 +18007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>29</v>
       </c>
@@ -17986,7 +18015,7 @@
         <v>1</v>
       </c>
       <c r="C433" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D433">
         <v>19.899999999999999</v>
@@ -18016,7 +18045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>28</v>
       </c>
@@ -18024,7 +18053,7 @@
         <v>1</v>
       </c>
       <c r="C434" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D434">
         <v>17.100000000000001</v>
@@ -18054,7 +18083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>27</v>
       </c>
@@ -18062,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="C435" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D435">
         <v>14.1</v>
@@ -18092,7 +18121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>26</v>
       </c>
@@ -18100,7 +18129,7 @@
         <v>8</v>
       </c>
       <c r="C436" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D436">
         <v>15.3</v>
@@ -18130,7 +18159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>25</v>
       </c>
@@ -18138,7 +18167,7 @@
         <v>8</v>
       </c>
       <c r="C437" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D437">
         <v>0.78</v>
@@ -18168,7 +18197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>24</v>
       </c>
@@ -18176,7 +18205,7 @@
         <v>8</v>
       </c>
       <c r="C438" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D438">
         <v>6.2</v>
@@ -18206,7 +18235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>23</v>
       </c>
@@ -18214,7 +18243,7 @@
         <v>8</v>
       </c>
       <c r="C439" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D439">
         <v>2.62</v>
@@ -18244,7 +18273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>22</v>
       </c>
@@ -18252,7 +18281,7 @@
         <v>8</v>
       </c>
       <c r="C440" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D440">
         <v>23.85</v>
@@ -18282,7 +18311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>21</v>
       </c>
@@ -18290,7 +18319,7 @@
         <v>8</v>
       </c>
       <c r="C441" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D441">
         <v>12.18</v>
@@ -18320,7 +18349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>20</v>
       </c>
@@ -18328,7 +18357,7 @@
         <v>5</v>
       </c>
       <c r="C442" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D442">
         <v>12.09</v>
@@ -18358,7 +18387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>17</v>
       </c>
@@ -18366,7 +18395,7 @@
         <v>3</v>
       </c>
       <c r="C443" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D443">
         <v>4.67</v>
@@ -18387,7 +18416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>16</v>
       </c>
@@ -18395,7 +18424,7 @@
         <v>7</v>
       </c>
       <c r="C444" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D444">
         <v>12.058999999999999</v>
@@ -18425,7 +18454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>15</v>
       </c>
@@ -18433,7 +18462,7 @@
         <v>10</v>
       </c>
       <c r="C445" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D445">
         <v>2.4689999999999999</v>
@@ -18463,7 +18492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>13</v>
       </c>
@@ -18471,7 +18500,7 @@
         <v>4</v>
       </c>
       <c r="C446" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -18492,7 +18521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>12</v>
       </c>
@@ -18500,7 +18529,7 @@
         <v>13</v>
       </c>
       <c r="C447" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D447">
         <v>31.6</v>
@@ -18524,7 +18553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>11</v>
       </c>
@@ -18532,7 +18561,7 @@
         <v>12</v>
       </c>
       <c r="C448" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D448">
         <v>10.6</v>
@@ -18563,35 +18592,35 @@
       <c r="C449" t="s">
         <v>436</v>
       </c>
-      <c r="D449">
-        <v>0</v>
-      </c>
-      <c r="E449">
-        <v>33.15</v>
-      </c>
-      <c r="F449">
+      <c r="D449" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="E449" s="2">
+        <v>24.855</v>
+      </c>
+      <c r="F449" s="2">
         <v>3.0710000000000002</v>
       </c>
-      <c r="G449">
-        <v>0</v>
-      </c>
-      <c r="H449">
-        <v>0</v>
-      </c>
-      <c r="I449">
-        <v>0</v>
-      </c>
-      <c r="J449">
-        <v>13</v>
-      </c>
-      <c r="K449" t="s">
-        <v>18</v>
-      </c>
-      <c r="L449" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G449" s="2">
+        <v>0</v>
+      </c>
+      <c r="H449" s="2">
+        <v>0</v>
+      </c>
+      <c r="I449" s="2">
+        <v>0</v>
+      </c>
+      <c r="J449" s="2">
+        <v>13</v>
+      </c>
+      <c r="K449" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L449" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>8</v>
       </c>
@@ -18599,7 +18628,7 @@
         <v>2</v>
       </c>
       <c r="C450" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -18629,7 +18658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>6</v>
       </c>
@@ -18637,7 +18666,7 @@
         <v>8</v>
       </c>
       <c r="C451" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D451">
         <v>0</v>
@@ -18658,7 +18687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>5</v>
       </c>
@@ -18666,7 +18695,7 @@
         <v>8</v>
       </c>
       <c r="C452" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D452">
         <v>7.0000000000000001E-3</v>
@@ -18687,7 +18716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4</v>
       </c>
@@ -18695,7 +18724,7 @@
         <v>8</v>
       </c>
       <c r="C453" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D453">
         <v>7.3689999999999998</v>
@@ -18716,7 +18745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -18724,7 +18753,7 @@
         <v>1</v>
       </c>
       <c r="C454" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -18745,7 +18774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>1</v>
       </c>
@@ -18753,7 +18782,7 @@
         <v>5</v>
       </c>
       <c r="C455" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D455">
         <v>11.95</v>
@@ -18774,7 +18803,294 @@
         <v>14</v>
       </c>
     </row>
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="2">
+        <v>28</v>
+      </c>
+      <c r="C456" t="s">
+        <v>430</v>
+      </c>
+      <c r="D456" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E456" s="2">
+        <v>5</v>
+      </c>
+      <c r="F456" s="2">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="G456" s="2">
+        <v>0</v>
+      </c>
+      <c r="H456" s="2">
+        <v>0</v>
+      </c>
+      <c r="I456" s="2">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2">
+        <v>10</v>
+      </c>
+      <c r="K456" t="s">
+        <v>18</v>
+      </c>
+      <c r="L456" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B457" s="2">
+        <v>28</v>
+      </c>
+      <c r="C457" t="s">
+        <v>431</v>
+      </c>
+      <c r="D457" s="2">
+        <v>0</v>
+      </c>
+      <c r="E457" s="2">
+        <v>7.0564999999999998</v>
+      </c>
+      <c r="F457" s="2">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="G457" s="2">
+        <v>0</v>
+      </c>
+      <c r="H457" s="2">
+        <v>0</v>
+      </c>
+      <c r="I457" s="2">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2">
+        <v>10</v>
+      </c>
+      <c r="K457" t="s">
+        <v>18</v>
+      </c>
+      <c r="L457" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B458" s="2">
+        <v>29</v>
+      </c>
+      <c r="C458" t="s">
+        <v>432</v>
+      </c>
+      <c r="D458" s="2">
+        <v>0</v>
+      </c>
+      <c r="E458" s="2">
+        <v>1.903</v>
+      </c>
+      <c r="F458" s="2">
+        <v>1.903</v>
+      </c>
+      <c r="G458" s="2">
+        <v>0</v>
+      </c>
+      <c r="H458" s="2">
+        <v>0</v>
+      </c>
+      <c r="I458" s="2">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2">
+        <v>9</v>
+      </c>
+      <c r="K458" t="s">
+        <v>18</v>
+      </c>
+      <c r="L458" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B459" s="2">
+        <v>29</v>
+      </c>
+      <c r="C459" t="s">
+        <v>433</v>
+      </c>
+      <c r="D459" s="2">
+        <v>0</v>
+      </c>
+      <c r="E459" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="F459" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="G459" s="2">
+        <v>0</v>
+      </c>
+      <c r="H459" s="2">
+        <v>0</v>
+      </c>
+      <c r="I459" s="2">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2">
+        <v>9</v>
+      </c>
+      <c r="K459" t="s">
+        <v>18</v>
+      </c>
+      <c r="L459" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="2">
+        <v>29</v>
+      </c>
+      <c r="C460" t="s">
+        <v>434</v>
+      </c>
+      <c r="D460" s="2">
+        <v>0</v>
+      </c>
+      <c r="E460" s="2">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="F460" s="2">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="G460" s="2">
+        <v>0</v>
+      </c>
+      <c r="H460" s="2">
+        <v>0</v>
+      </c>
+      <c r="I460" s="2">
+        <v>0</v>
+      </c>
+      <c r="J460" s="2">
+        <v>9</v>
+      </c>
+      <c r="K460" t="s">
+        <v>18</v>
+      </c>
+      <c r="L460" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="2">
+        <v>28</v>
+      </c>
+      <c r="C461" t="s">
+        <v>435</v>
+      </c>
+      <c r="D461" s="2">
+        <v>0</v>
+      </c>
+      <c r="E461" s="2">
+        <v>48.35</v>
+      </c>
+      <c r="F461" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="G461" s="2">
+        <v>0</v>
+      </c>
+      <c r="H461" s="2">
+        <v>0</v>
+      </c>
+      <c r="I461" s="2">
+        <v>0</v>
+      </c>
+      <c r="J461" s="2">
+        <v>11</v>
+      </c>
+      <c r="K461" t="s">
+        <v>18</v>
+      </c>
+      <c r="L461" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B462" s="2">
+        <v>11</v>
+      </c>
+      <c r="C462" t="s">
+        <v>445</v>
+      </c>
+      <c r="D462" s="2">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E462" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="F462" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G462" s="2">
+        <v>0</v>
+      </c>
+      <c r="H462" s="2">
+        <v>0</v>
+      </c>
+      <c r="I462" s="2">
+        <v>0</v>
+      </c>
+      <c r="J462" s="2">
+        <v>7</v>
+      </c>
+      <c r="K462" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L462" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B463" s="2">
+        <v>11</v>
+      </c>
+      <c r="C463" t="s">
+        <v>450</v>
+      </c>
+      <c r="D463" s="2">
+        <v>20.11</v>
+      </c>
+      <c r="E463" s="2">
+        <v>20.11</v>
+      </c>
+      <c r="F463" s="2">
+        <v>1</v>
+      </c>
+      <c r="G463" s="2">
+        <v>0</v>
+      </c>
+      <c r="H463" s="2">
+        <v>0</v>
+      </c>
+      <c r="I463" s="2">
+        <v>0</v>
+      </c>
+      <c r="J463" s="2">
+        <v>14</v>
+      </c>
+      <c r="K463" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L463" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:L461">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="11"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Database_backup/DPP_Intervention-2020-08-09.xlsx
+++ b/Database_backup/DPP_Intervention-2020-08-09.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Database_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Database_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17112" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -1731,17 +1731,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C465" sqref="C465"/>
+      <selection pane="bottomLeft" activeCell="C468" sqref="C468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="79.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2"/>
+    <col min="3" max="3" width="79.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>540</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>539</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>538</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>537</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>517</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>516</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>515</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>514</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>513</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>512</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>511</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>510</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>509</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>508</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>507</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>506</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>505</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>491</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>490</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>489</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>488</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>483</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>482</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>481</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>474</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>473</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>472</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>471</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>470</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>469</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>468</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>460</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>459</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>456</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>455</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>452</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>451</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>448</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>447</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>444</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>443</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>440</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>439</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>436</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>435</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>432</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>431</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>428</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>427</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>424</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>423</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>420</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>419</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>410</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>409</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>408</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>407</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>406</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>405</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>404</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>403</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>402</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>401</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>400</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>399</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>398</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>397</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>396</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>395</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>394</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>393</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>392</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>391</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>390</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>389</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>388</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>387</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>386</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>385</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>384</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>383</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>382</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>381</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>380</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>379</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>378</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>376</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>375</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>374</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>373</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>372</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>371</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>370</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>369</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>368</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>367</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>366</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>365</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>364</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>363</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>362</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>361</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>360</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>359</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>358</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>357</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>356</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>355</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>354</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>353</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>352</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>351</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>350</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>349</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>348</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>347</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>346</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>345</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>344</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>343</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>342</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>341</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>340</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>339</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>338</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>337</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>336</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>335</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>334</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>333</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>332</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>331</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>330</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>329</v>
       </c>
@@ -6721,7 +6722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>328</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>327</v>
       </c>
@@ -6797,7 +6798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>326</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>325</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>324</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>323</v>
       </c>
@@ -6949,7 +6950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>322</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>321</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>320</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>319</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>318</v>
       </c>
@@ -7139,7 +7140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>317</v>
       </c>
@@ -7177,7 +7178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>316</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>315</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>314</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>313</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>312</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>311</v>
       </c>
@@ -7405,7 +7406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>310</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>309</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>308</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>307</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>306</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>305</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>304</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>303</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>302</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>301</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>300</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>299</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>298</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>297</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>296</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>295</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>294</v>
       </c>
@@ -8051,7 +8052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>293</v>
       </c>
@@ -8089,7 +8090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>292</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>290</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>289</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>288</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>287</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>286</v>
       </c>
@@ -8317,7 +8318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>285</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>284</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>283</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>282</v>
       </c>
@@ -8469,7 +8470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>281</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>280</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>279</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>278</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>277</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>276</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>275</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>274</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>273</v>
       </c>
@@ -8811,7 +8812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>272</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>271</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>270</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>269</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>268</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>267</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>266</v>
       </c>
@@ -9077,7 +9078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>265</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>264</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>263</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>262</v>
       </c>
@@ -9229,7 +9230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>261</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>260</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>259</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>258</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>257</v>
       </c>
@@ -9419,7 +9420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>256</v>
       </c>
@@ -9457,7 +9458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>255</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>254</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>253</v>
       </c>
@@ -9571,7 +9572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>252</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>251</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>250</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>249</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>248</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>247</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>246</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>245</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>244</v>
       </c>
@@ -9913,7 +9914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>243</v>
       </c>
@@ -9951,7 +9952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>242</v>
       </c>
@@ -9989,7 +9990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>241</v>
       </c>
@@ -10027,7 +10028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>240</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>239</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>238</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>237</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>236</v>
       </c>
@@ -10217,7 +10218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>235</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>234</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>233</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10407,7 +10408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>230</v>
       </c>
@@ -10445,7 +10446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>229</v>
       </c>
@@ -10483,7 +10484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>228</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>227</v>
       </c>
@@ -10559,7 +10560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>226</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>225</v>
       </c>
@@ -10635,7 +10636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>224</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>223</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>222</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>221</v>
       </c>
@@ -10787,7 +10788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>220</v>
       </c>
@@ -10825,7 +10826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>219</v>
       </c>
@@ -10863,7 +10864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>218</v>
       </c>
@@ -10901,7 +10902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>217</v>
       </c>
@@ -10939,7 +10940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>216</v>
       </c>
@@ -10977,7 +10978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>215</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>214</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>213</v>
       </c>
@@ -11091,7 +11092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>212</v>
       </c>
@@ -11129,7 +11130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>211</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>210</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>209</v>
       </c>
@@ -11243,7 +11244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>208</v>
       </c>
@@ -11281,7 +11282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>207</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>206</v>
       </c>
@@ -11357,7 +11358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>205</v>
       </c>
@@ -11395,7 +11396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>204</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>203</v>
       </c>
@@ -11471,7 +11472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>202</v>
       </c>
@@ -11509,7 +11510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>201</v>
       </c>
@@ -11547,7 +11548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>200</v>
       </c>
@@ -11585,7 +11586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>199</v>
       </c>
@@ -11623,7 +11624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>198</v>
       </c>
@@ -11661,7 +11662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>197</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>196</v>
       </c>
@@ -11737,7 +11738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>195</v>
       </c>
@@ -11775,7 +11776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>194</v>
       </c>
@@ -11813,7 +11814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>193</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>192</v>
       </c>
@@ -11889,7 +11890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>191</v>
       </c>
@@ -11927,7 +11928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>190</v>
       </c>
@@ -11965,7 +11966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>189</v>
       </c>
@@ -12003,7 +12004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>188</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>187</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>186</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>185</v>
       </c>
@@ -12155,7 +12156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>184</v>
       </c>
@@ -12193,7 +12194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>183</v>
       </c>
@@ -12231,7 +12232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>182</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>181</v>
       </c>
@@ -12307,7 +12308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>180</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>179</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>178</v>
       </c>
@@ -12421,7 +12422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>177</v>
       </c>
@@ -12459,7 +12460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>176</v>
       </c>
@@ -12497,7 +12498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>175</v>
       </c>
@@ -12535,7 +12536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>174</v>
       </c>
@@ -12573,7 +12574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>173</v>
       </c>
@@ -12611,7 +12612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>172</v>
       </c>
@@ -12649,7 +12650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>171</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>170</v>
       </c>
@@ -12725,7 +12726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>169</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>168</v>
       </c>
@@ -12801,7 +12802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>167</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>166</v>
       </c>
@@ -12877,7 +12878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>165</v>
       </c>
@@ -12915,7 +12916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>164</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>163</v>
       </c>
@@ -12991,7 +12992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>162</v>
       </c>
@@ -13029,7 +13030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>161</v>
       </c>
@@ -13067,7 +13068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>160</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>159</v>
       </c>
@@ -13143,7 +13144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>158</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>157</v>
       </c>
@@ -13219,7 +13220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>156</v>
       </c>
@@ -13257,7 +13258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>155</v>
       </c>
@@ -13295,7 +13296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>154</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>153</v>
       </c>
@@ -13371,7 +13372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>152</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>151</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>150</v>
       </c>
@@ -13485,7 +13486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>149</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>148</v>
       </c>
@@ -13561,7 +13562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>147</v>
       </c>
@@ -13599,7 +13600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>146</v>
       </c>
@@ -13637,7 +13638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>145</v>
       </c>
@@ -13675,7 +13676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>144</v>
       </c>
@@ -13713,7 +13714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>143</v>
       </c>
@@ -13751,7 +13752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>142</v>
       </c>
@@ -13789,7 +13790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>141</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>140</v>
       </c>
@@ -13865,7 +13866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>139</v>
       </c>
@@ -13903,7 +13904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>138</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>137</v>
       </c>
@@ -13979,7 +13980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>136</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>135</v>
       </c>
@@ -14055,7 +14056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>134</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>133</v>
       </c>
@@ -14131,7 +14132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>132</v>
       </c>
@@ -14169,7 +14170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>131</v>
       </c>
@@ -14207,7 +14208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>130</v>
       </c>
@@ -14245,7 +14246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>129</v>
       </c>
@@ -14283,7 +14284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>128</v>
       </c>
@@ -14321,7 +14322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>127</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>126</v>
       </c>
@@ -14397,7 +14398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>125</v>
       </c>
@@ -14435,7 +14436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>124</v>
       </c>
@@ -14473,7 +14474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>123</v>
       </c>
@@ -14511,7 +14512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>122</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>121</v>
       </c>
@@ -14587,7 +14588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>120</v>
       </c>
@@ -14625,7 +14626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>119</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>118</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>117</v>
       </c>
@@ -14739,7 +14740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>116</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>115</v>
       </c>
@@ -14815,7 +14816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>114</v>
       </c>
@@ -14853,7 +14854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>113</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>112</v>
       </c>
@@ -14929,7 +14930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>111</v>
       </c>
@@ -14967,7 +14968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>110</v>
       </c>
@@ -15005,7 +15006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>109</v>
       </c>
@@ -15043,7 +15044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>108</v>
       </c>
@@ -15081,7 +15082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>107</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>106</v>
       </c>
@@ -15157,7 +15158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>105</v>
       </c>
@@ -15195,7 +15196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>104</v>
       </c>
@@ -15233,7 +15234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>103</v>
       </c>
@@ -15271,7 +15272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>102</v>
       </c>
@@ -15309,7 +15310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>101</v>
       </c>
@@ -15347,7 +15348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>100</v>
       </c>
@@ -15385,7 +15386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>99</v>
       </c>
@@ -15423,7 +15424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>98</v>
       </c>
@@ -15461,7 +15462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>97</v>
       </c>
@@ -15499,7 +15500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>96</v>
       </c>
@@ -15537,7 +15538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>95</v>
       </c>
@@ -15575,7 +15576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>94</v>
       </c>
@@ -15613,7 +15614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>93</v>
       </c>
@@ -15651,7 +15652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>92</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>91</v>
       </c>
@@ -15727,7 +15728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>90</v>
       </c>
@@ -15765,7 +15766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>89</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>88</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>87</v>
       </c>
@@ -15879,7 +15880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>86</v>
       </c>
@@ -15917,7 +15918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>85</v>
       </c>
@@ -15955,7 +15956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>84</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>83</v>
       </c>
@@ -16031,7 +16032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>82</v>
       </c>
@@ -16069,7 +16070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>81</v>
       </c>
@@ -16107,7 +16108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>80</v>
       </c>
@@ -16145,7 +16146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>79</v>
       </c>
@@ -16183,7 +16184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>78</v>
       </c>
@@ -16221,7 +16222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>77</v>
       </c>
@@ -16259,7 +16260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>76</v>
       </c>
@@ -16297,7 +16298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>75</v>
       </c>
@@ -16335,7 +16336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>74</v>
       </c>
@@ -16373,7 +16374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>73</v>
       </c>
@@ -16411,7 +16412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>72</v>
       </c>
@@ -16449,7 +16450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>71</v>
       </c>
@@ -16487,7 +16488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>70</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>69</v>
       </c>
@@ -16563,7 +16564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>68</v>
       </c>
@@ -16601,7 +16602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>67</v>
       </c>
@@ -16639,7 +16640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>66</v>
       </c>
@@ -16677,7 +16678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>65</v>
       </c>
@@ -16715,7 +16716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>64</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>63</v>
       </c>
@@ -16791,7 +16792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>62</v>
       </c>
@@ -16829,7 +16830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>61</v>
       </c>
@@ -16867,7 +16868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>60</v>
       </c>
@@ -16905,7 +16906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>59</v>
       </c>
@@ -16943,7 +16944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>58</v>
       </c>
@@ -16981,7 +16982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>57</v>
       </c>
@@ -17019,7 +17020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>56</v>
       </c>
@@ -17057,7 +17058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>55</v>
       </c>
@@ -17095,7 +17096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>54</v>
       </c>
@@ -17133,7 +17134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>53</v>
       </c>
@@ -17171,7 +17172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>52</v>
       </c>
@@ -17209,7 +17210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>51</v>
       </c>
@@ -17247,7 +17248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>50</v>
       </c>
@@ -17285,7 +17286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>49</v>
       </c>
@@ -17323,7 +17324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>48</v>
       </c>
@@ -17361,7 +17362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>47</v>
       </c>
@@ -17399,7 +17400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>46</v>
       </c>
@@ -17437,7 +17438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>45</v>
       </c>
@@ -17475,7 +17476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>44</v>
       </c>
@@ -17513,7 +17514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>43</v>
       </c>
@@ -17551,7 +17552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>42</v>
       </c>
@@ -17589,7 +17590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>41</v>
       </c>
@@ -17627,7 +17628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>40</v>
       </c>
@@ -17665,7 +17666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>39</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>38</v>
       </c>
@@ -17741,7 +17742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>37</v>
       </c>
@@ -17779,7 +17780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>36</v>
       </c>
@@ -17817,7 +17818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>34</v>
       </c>
@@ -17855,7 +17856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>33</v>
       </c>
@@ -17893,7 +17894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>32</v>
       </c>
@@ -17931,7 +17932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>31</v>
       </c>
@@ -17969,7 +17970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>30</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>29</v>
       </c>
@@ -18045,7 +18046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>28</v>
       </c>
@@ -18083,7 +18084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>27</v>
       </c>
@@ -18121,7 +18122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>26</v>
       </c>
@@ -18159,7 +18160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>25</v>
       </c>
@@ -18197,7 +18198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>24</v>
       </c>
@@ -18235,7 +18236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>23</v>
       </c>
@@ -18273,7 +18274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>22</v>
       </c>
@@ -18311,7 +18312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>21</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>20</v>
       </c>
@@ -18387,7 +18388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>17</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>16</v>
       </c>
@@ -18454,7 +18455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>15</v>
       </c>
@@ -18492,7 +18493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>13</v>
       </c>
@@ -18521,7 +18522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>12</v>
       </c>
@@ -18553,7 +18554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>11</v>
       </c>
@@ -18582,7 +18583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>9</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>8</v>
       </c>
@@ -18658,7 +18659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>6</v>
       </c>
@@ -18687,7 +18688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>5</v>
       </c>
@@ -18716,7 +18717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>4</v>
       </c>
@@ -18745,7 +18746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2</v>
       </c>
@@ -18774,7 +18775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1</v>
       </c>
@@ -18803,7 +18804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B456" s="2">
         <v>28</v>
       </c>
@@ -18838,7 +18839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B457" s="2">
         <v>28</v>
       </c>
@@ -18873,7 +18874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B458" s="2">
         <v>29</v>
       </c>
@@ -18908,7 +18909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B459" s="2">
         <v>29</v>
       </c>
@@ -18943,7 +18944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B460" s="2">
         <v>29</v>
       </c>
@@ -18978,7 +18979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B461" s="2">
         <v>28</v>
       </c>
@@ -19013,7 +19014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B462" s="2">
         <v>11</v>
       </c>
@@ -19048,7 +19049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B463" s="2">
         <v>11</v>
       </c>
